--- a/data/predictions/race/aid_blacks/leveled/independent.xlsx
+++ b/data/predictions/race/aid_blacks/leveled/independent.xlsx
@@ -949,7 +949,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.5514865623161529</v>
+        <v>0.5316176603049132</v>
       </c>
       <c r="D34">
         <v>0.1482035420829041</v>
@@ -958,7 +958,7 @@
         <v>0.07763422062858513</v>
       </c>
       <c r="H34">
-        <v>0.0803789761993369</v>
+        <v>0.08782361746271436</v>
       </c>
       <c r="J34">
         <v>0.1561712314748928</v>
@@ -969,7 +969,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.4715062626131833</v>
+        <v>0.4116220468976043</v>
       </c>
       <c r="D35">
         <v>0.2595562910491185</v>
@@ -978,7 +978,7 @@
         <v>0.07432093568737085</v>
       </c>
       <c r="H35">
-        <v>0.07182508280150846</v>
+        <v>0.07601351982695492</v>
       </c>
       <c r="J35">
         <v>0.158416487218954</v>
@@ -989,7 +989,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.5047465360261756</v>
+        <v>0.4326536222362715</v>
       </c>
       <c r="D36">
         <v>0.2685720745205704</v>
@@ -998,7 +998,7 @@
         <v>0.07928683215056574</v>
       </c>
       <c r="H36">
-        <v>0.0615197623909384</v>
+        <v>0.06173304194900504</v>
       </c>
       <c r="J36">
         <v>0.1580793584381035</v>
@@ -1009,7 +1009,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.5604589547991995</v>
+        <v>0.4956825840724167</v>
       </c>
       <c r="D37">
         <v>0.2255782907348674</v>
@@ -1018,7 +1018,7 @@
         <v>0.07979783353765149</v>
       </c>
       <c r="H37">
-        <v>0.08172495344121697</v>
+        <v>0.08037008136781745</v>
       </c>
       <c r="J37">
         <v>0.1579392244061074</v>
@@ -1029,7 +1029,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.5294646328806878</v>
+        <v>0.4737534995202233</v>
       </c>
       <c r="D38">
         <v>0.2102774802137085</v>
@@ -1038,7 +1038,7 @@
         <v>0.07863561684206731</v>
       </c>
       <c r="H38">
-        <v>0.08063757169024306</v>
+        <v>0.09310586281880477</v>
       </c>
       <c r="J38">
         <v>0.1578609994613565</v>
@@ -1049,7 +1049,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.5277793041104377</v>
+        <v>0.5057807911910518</v>
       </c>
       <c r="D39">
         <v>0.2167184803346781</v>
@@ -1058,7 +1058,7 @@
         <v>0.07812896538070099</v>
       </c>
       <c r="H39">
-        <v>0.0806415378725216</v>
+        <v>0.08934269270628112</v>
       </c>
       <c r="J39">
         <v>0.1577829995021618</v>
